--- a/Data/Transitions/19261931Translation.xlsx
+++ b/Data/Transitions/19261931Translation.xlsx
@@ -31,13 +31,13 @@
     <t>{2.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.7129629629629629}</t>
+    <t>{3.0: 0.7069508804448563}</t>
   </si>
   <si>
     <t>{4.0: 1.0}</t>
   </si>
   <si>
-    <t>{5.0: 0.9881325570980743}</t>
+    <t>{5.0: 0.988177559669864}</t>
   </si>
   <si>
     <t>{6.0: 1.0}</t>
@@ -52,7 +52,7 @@
     <t>{9.0: 1.0}</t>
   </si>
   <si>
-    <t>{10.0: 0.9896835717381881}</t>
+    <t>{10.0: 0.9895951735594999}</t>
   </si>
   <si>
     <t>{11.0: 1.0}</t>
@@ -106,13 +106,13 @@
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 1.0, 246.0: 0.022467765092163004, 681.0: 0.003530544559751792, 741.0: 0.006816245384833854, 789.0: 0.0030806647750304013, 90.0: 0.005317945236478841}</t>
+    <t>{46.0: 1.0, 246.0: 0.02244441000314986, 681.0: 0.0035354617527319477, 741.0: 0.006816245384833854, 789.0: 0.0030869212022745737, 90.0: 0.005340909090909091}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
   </si>
   <si>
-    <t>{48.0: 1.0, 443.0: 0.03765690376569038}</t>
+    <t>{48.0: 1.0, 443.0: 0.03748355984217448}</t>
   </si>
   <si>
     <t>{49.0: 1.0}</t>
@@ -190,7 +190,7 @@
     <t>{85.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.9977833604255948}</t>
+    <t>{86.0: 0.9977641973468475}</t>
   </si>
   <si>
     <t>{87.0: 1.0}</t>
@@ -202,10 +202,10 @@
     <t>{89.0: 1.0}</t>
   </si>
   <si>
-    <t>{90.0: 0.9946820547635211}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.9996668959460804}</t>
+    <t>{90.0: 0.9946590909090909}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.9996710680889056}</t>
   </si>
   <si>
     <t>{92.0: 1.0}</t>
@@ -250,7 +250,7 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 1.0, 86.0: 0.0022166395744052016}</t>
+    <t>{107.0: 1.0, 86.0: 0.0022358026531524816}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
@@ -298,7 +298,7 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 1.0, 975.0: 0.0008218266525426588}</t>
+    <t>{152.0: 1.0, 975.0: 0.0008217910235256162}</t>
   </si>
   <si>
     <t>{162.0: 1.0}</t>
@@ -328,7 +328,7 @@
     <t>{170.0: 1.0}</t>
   </si>
   <si>
-    <t>{171.0: 0.9941326092971441}</t>
+    <t>{171.0: 0.994147510254659}</t>
   </si>
   <si>
     <t>{172.0: 1.0, 81.0: 0.004697040864255519}</t>
@@ -355,7 +355,7 @@
     <t>{179.0: 1.0}</t>
   </si>
   <si>
-    <t>{180.0: 1.0, 410.0: 0.03427719821162444}</t>
+    <t>{180.0: 1.0, 410.0: 0.03398499659013412}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
@@ -367,7 +367,7 @@
     <t>{183.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 1.0, 171.0: 0.0012581302796420301}</t>
+    <t>{184.0: 1.0, 171.0: 0.0012581491376350883}</t>
   </si>
   <si>
     <t>{185.0: 1.0}</t>
@@ -400,10 +400,10 @@
     <t>{210.0: 1.0}</t>
   </si>
   <si>
-    <t>{211.0: 0.970627863109674}</t>
-  </si>
-  <si>
-    <t>{212.0: 1.0, 681.0: 0.00641917192682144}</t>
+    <t>{211.0: 0.9704727075714479}</t>
+  </si>
+  <si>
+    <t>{212.0: 1.0, 681.0: 0.0064281122776944505}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -415,7 +415,7 @@
     <t>{215.0: 1.0}</t>
   </si>
   <si>
-    <t>{217.0: 0.9946335737045111}</t>
+    <t>{217.0: 0.9945955075156223}</t>
   </si>
   <si>
     <t>{218.0: 1.0}</t>
@@ -442,7 +442,7 @@
     <t>{227.0: 1.0}</t>
   </si>
   <si>
-    <t>{228.0: 1.0, 738.0: 0.003872216844143272}</t>
+    <t>{228.0: 1.0, 738.0: 0.003875968992248062}</t>
   </si>
   <si>
     <t>{229.0: 1.0}</t>
@@ -481,13 +481,16 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.9760415134094015}</t>
+    <t>{246.0: 0.9760665335775739}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -574,10 +577,10 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9602417730020147}</t>
-  </si>
-  <si>
-    <t>{278.0: 1.0, 757.0: 0.02934816187828236}</t>
+    <t>{277.0: 0.9600539811066127}</t>
+  </si>
+  <si>
+    <t>{278.0: 1.0, 757.0: 0.03518518518518519}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -601,7 +604,7 @@
     <t>{285.0: 1.0}</t>
   </si>
   <si>
-    <t>{286.0: 1.0, 909.0: 0.04610555228565823}</t>
+    <t>{286.0: 1.0, 909.0: 0.047051756932625886}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
@@ -685,7 +688,7 @@
     <t>{314.0: 1.0}</t>
   </si>
   <si>
-    <t>{315.0: 1.0, 217.0: 0.005366426295488848}</t>
+    <t>{315.0: 1.0, 217.0: 0.005404492484377639}</t>
   </si>
   <si>
     <t>{316.0: 1.0}</t>
@@ -700,9 +703,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{321.0: 1.0}</t>
   </si>
   <si>
@@ -742,7 +742,7 @@
     <t>{409.0: 1.0}</t>
   </si>
   <si>
-    <t>{410.0: 0.9657228017883756}</t>
+    <t>{410.0: 0.9660150034098659}</t>
   </si>
   <si>
     <t>{412.0: 1.0}</t>
@@ -763,13 +763,13 @@
     <t>{417.0: 1.0}</t>
   </si>
   <si>
-    <t>{418.0: 0.8830488750969744}</t>
+    <t>{418.0: 0.8827532568539763}</t>
   </si>
   <si>
     <t>{419.0: 1.0}</t>
   </si>
   <si>
-    <t>{420.0: 0.9922685521707526}</t>
+    <t>{420.0: 0.9922624165068448}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
@@ -829,7 +829,7 @@
     <t>{442.0: 1.0}</t>
   </si>
   <si>
-    <t>{443.0: 0.9623430962343096}</t>
+    <t>{443.0: 0.9625164401578256}</t>
   </si>
   <si>
     <t>{475.0: 1.0}</t>
@@ -988,7 +988,7 @@
     <t>{561.0: 1.0}</t>
   </si>
   <si>
-    <t>{562.0: 1.0, 211.0: 0.029372136890326056}</t>
+    <t>{562.0: 1.0, 211.0: 0.02952729242855208}</t>
   </si>
   <si>
     <t>{563.0: 0.9855681658960348}</t>
@@ -1024,7 +1024,7 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.751297364502824}</t>
+    <t>{580.0: 0.7504436840195924}</t>
   </si>
   <si>
     <t>{581.0: 1.0}</t>
@@ -1063,7 +1063,7 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.9989628512162927}</t>
+    <t>{593.0: 0.9989665539270951}</t>
   </si>
   <si>
     <t>{595.0: 1.0}</t>
@@ -1075,10 +1075,10 @@
     <t>{597.0: 1.0}</t>
   </si>
   <si>
-    <t>{598.0: 1.0, 599.0: 0.007421875}</t>
-  </si>
-  <si>
-    <t>{599.0: 0.992578125}</t>
+    <t>{598.0: 1.0, 599.0: 0.007639726578206675}</t>
+  </si>
+  <si>
+    <t>{599.0: 0.9923602734217933}</t>
   </si>
   <si>
     <t>{600.0: 1.0}</t>
@@ -1117,10 +1117,10 @@
     <t>{611.0: 1.0}</t>
   </si>
   <si>
-    <t>{612.0: 1.0, 613.0: 0.014371407148212946}</t>
-  </si>
-  <si>
-    <t>{613.0: 0.985628592851787}</t>
+    <t>{612.0: 1.0, 613.0: 0.013974117504101099}</t>
+  </si>
+  <si>
+    <t>{613.0: 0.986025882495899}</t>
   </si>
   <si>
     <t>{614.0: 1.0}</t>
@@ -1201,13 +1201,13 @@
     <t>{680.0: 1.0}</t>
   </si>
   <si>
-    <t>{681.0: 0.9900502835134267}</t>
+    <t>{681.0: 0.9900364259695736}</t>
   </si>
   <si>
     <t>{682.0: 1.0}</t>
   </si>
   <si>
-    <t>{683.0: 1.0, 698.0: 0.002109181141439206}</t>
+    <t>{683.0: 1.0, 698.0: 0.0021246016371930265}</t>
   </si>
   <si>
     <t>{684.0: 1.0}</t>
@@ -1243,7 +1243,7 @@
     <t>{694.0: 1.0}</t>
   </si>
   <si>
-    <t>{695.0: 1.0, 857.0: 0.03038046564452016}</t>
+    <t>{695.0: 1.0, 857.0: 0.030402045745134252}</t>
   </si>
   <si>
     <t>{696.0: 1.0}</t>
@@ -1252,7 +1252,7 @@
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.9978908188585608}</t>
+    <t>{698.0: 0.9978753983628069}</t>
   </si>
   <si>
     <t>{700.0: 1.0}</t>
@@ -1276,10 +1276,10 @@
     <t>{706.0: 1.0}</t>
   </si>
   <si>
-    <t>{707.0: 0.9947004269100544}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.24870263549717592}</t>
+    <t>{707.0: 0.9945071711931645}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.2495563159804075}</t>
   </si>
   <si>
     <t>{729.0: 1.0}</t>
@@ -1309,7 +1309,7 @@
     <t>{737.0: 1.0}</t>
   </si>
   <si>
-    <t>{738.0: 0.9961277831558567}</t>
+    <t>{738.0: 0.9961240310077519}</t>
   </si>
   <si>
     <t>{739.0: 1.0}</t>
@@ -1360,7 +1360,7 @@
     <t>{756.0: 1.0}</t>
   </si>
   <si>
-    <t>{757.0: 0.4164349706518381}</t>
+    <t>{757.0: 0.30037037037037034}</t>
   </si>
   <si>
     <t>{758.0: 1.0}</t>
@@ -1369,10 +1369,10 @@
     <t>{759.0: 1.0}</t>
   </si>
   <si>
-    <t>{760.0: 1.0, 761.0: 0.056717805671780565}</t>
-  </si>
-  <si>
-    <t>{761.0: 0.9432821943282195}</t>
+    <t>{760.0: 1.0, 761.0: 0.05663223859811999}</t>
+  </si>
+  <si>
+    <t>{761.0: 0.9433677614018801}</t>
   </si>
   <si>
     <t>{762.0: 1.0}</t>
@@ -1408,7 +1408,7 @@
     <t>{772.0: 1.0}</t>
   </si>
   <si>
-    <t>{773.0: 1.0, 757.0: 0.5542168674698795}</t>
+    <t>{773.0: 1.0, 757.0: 0.6644444444444444}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1453,7 +1453,7 @@
     <t>{788.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.9969193352249696, 246.0: 0.0014907214984355814}</t>
+    <t>{789.0: 0.9969130787977254, 246.0: 0.0014890564192763054}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
@@ -1507,13 +1507,13 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 1.0, 707.0: 0.005299573089945532}</t>
+    <t>{848.0: 1.0, 707.0: 0.00549282880683552}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 1.0, 277.0: 0.03975822699798522}</t>
+    <t>{850.0: 1.0, 277.0: 0.039946018893387315}</t>
   </si>
   <si>
     <t>{851.0: 1.0}</t>
@@ -1522,7 +1522,7 @@
     <t>{852.0: 1.0}</t>
   </si>
   <si>
-    <t>{853.0: 1.0, 91.0: 0.00033310405391959646}</t>
+    <t>{853.0: 1.0, 91.0: 0.00032893191109440345}</t>
   </si>
   <si>
     <t>{854.0: 1.0}</t>
@@ -1534,7 +1534,7 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 0.9696195343554799}</t>
+    <t>{857.0: 0.9695979542548657}</t>
   </si>
   <si>
     <t>{858.0: 1.0, 543.0: 0.018817581800308944}</t>
@@ -1552,7 +1552,7 @@
     <t>{862.0: 1.0}</t>
   </si>
   <si>
-    <t>{863.0: 1.0, 10.0: 0.010316428261811877}</t>
+    <t>{863.0: 1.0, 10.0: 0.010404826440500132}</t>
   </si>
   <si>
     <t>{885.0: 1.0}</t>
@@ -1603,7 +1603,7 @@
     <t>{907.0: 1.0}</t>
   </si>
   <si>
-    <t>{909.0: 0.9538944477143417}</t>
+    <t>{909.0: 0.9529482430673741}</t>
   </si>
   <si>
     <t>{910.0: 1.0}</t>
@@ -1618,7 +1618,7 @@
     <t>{914.0: 0.9747840298855942}</t>
   </si>
   <si>
-    <t>{915.0: 1.0, 171.0: 0.0035617012361198407, 420.0: 0.00773144782924734}</t>
+    <t>{915.0: 1.0, 171.0: 0.003550172287772789, 420.0: 0.007737583493155215}</t>
   </si>
   <si>
     <t>{916.0: 1.0}</t>
@@ -1639,7 +1639,7 @@
     <t>{921.0: 1.0}</t>
   </si>
   <si>
-    <t>{922.0: 0.9349464271666311}</t>
+    <t>{922.0: 0.9362087247694011}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1657,13 +1657,13 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.28703703703703703, 418.0: 0.1169511249030256, 922.0: 0.06505357283336885}</t>
-  </si>
-  <si>
-    <t>{929.0: 1.0, 930.0: 0.10097227696754697}</t>
-  </si>
-  <si>
-    <t>{930.0: 0.899027723032453}</t>
+    <t>{3.0: 0.2930491195551437, 418.0: 0.11724674314602372, 922.0: 0.06379127523059891}</t>
+  </si>
+  <si>
+    <t>{929.0: 1.0, 930.0: 0.10524513831826897}</t>
+  </si>
+  <si>
+    <t>{930.0: 0.894754861681731}</t>
   </si>
   <si>
     <t>{931.0: 0.9138912855910267}</t>
@@ -1675,7 +1675,7 @@
     <t>{933.0: 1.0}</t>
   </si>
   <si>
-    <t>{934.0: 1.0, 5.0: 0.01186744290192566}</t>
+    <t>{934.0: 1.0, 5.0: 0.01182244033013607}</t>
   </si>
   <si>
     <t>{935.0: 1.0}</t>
@@ -1684,7 +1684,7 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 171.0: 0.001047559187094071, 593.0: 0.0010371487837073355}</t>
+    <t>{937.0: 1.0, 171.0: 0.0010441683199331733, 593.0: 0.001033446072904923}</t>
   </si>
   <si>
     <t>{938.0: 1.0}</t>
@@ -1708,7 +1708,7 @@
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 975.0: 0.002119815668202765}</t>
+    <t>{971.0: 1.0, 975.0: 0.002163077212451801}</t>
   </si>
   <si>
     <t>{139.0: 0.3506731946144431}</t>
@@ -1720,7 +1720,7 @@
     <t>{974.0: 1.0}</t>
   </si>
   <si>
-    <t>{975.0: 0.9970583576792547}</t>
+    <t>{975.0: 0.9970151317640227}</t>
   </si>
   <si>
     <t>{976.0: 1.0}</t>
@@ -1765,7 +1765,7 @@
     <t>{34.0: 0.6476663616158975, 995.0: 0.3523336383841025}</t>
   </si>
   <si>
-    <t>{46.0: 0.9002528412729999, 246.0: 0.05619714646774234, 681.0: 0.010181063660729604, 741.0: 0.007404409935076076, 789.0: 0.011723649063870455, 90.0: 0.014240889599581853}</t>
+    <t>{46.0: 0.9002528412729998, 246.0: 0.05619714646774235, 681.0: 0.010181063660729607, 741.0: 0.007404409935076077, 789.0: 0.011723649063870457, 90.0: 0.014240889599581853}</t>
   </si>
   <si>
     <t>{48.0: 0.9182990922121357, 443.0: 0.0817009077878643}</t>
@@ -1819,7 +1819,7 @@
     <t>{217.0: 1.0}</t>
   </si>
   <si>
-    <t>{221.0: 0.9001536098310291, 999.0: 0.09984639016897082}</t>
+    <t>{221.0: 0.9001536098310293, 999.0: 0.09984639016897082}</t>
   </si>
   <si>
     <t>{228.0: 0.9923809523809523, 738.0: 0.00761904761904762}</t>
@@ -1843,7 +1843,7 @@
     <t>{278.0: 0.9753822233739311, 757.0: 0.02461777662606893}</t>
   </si>
   <si>
-    <t>{286.0: 0.9156799425905993, 909.0: 0.0843200574094008}</t>
+    <t>{286.0: 0.9161163662323755, 909.0: 0.08388363376762449}</t>
   </si>
   <si>
     <t>{306.0: 0.9617261904761905, 142.0: 0.03827380952380952}</t>
@@ -1921,7 +1921,7 @@
     <t>{683.0: 0.9892029215624007, 698.0: 0.010797078437599238}</t>
   </si>
   <si>
-    <t>{695.0: 0.9182582123758595, 857.0: 0.08174178762414057}</t>
+    <t>{695.0: 0.9183829138062549, 857.0: 0.08161708619374523}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -1945,7 +1945,7 @@
     <t>{761.0: 1.0}</t>
   </si>
   <si>
-    <t>{773.0: 0.8230245634803198, 757.0: 0.17697543651968037}</t>
+    <t>{773.0: 0.8230245634803195, 757.0: 0.17697543651968037}</t>
   </si>
   <si>
     <t>{789.0: 0.9990364541512767, 246.0: 0.0009635458487233016}</t>
@@ -1954,7 +1954,7 @@
     <t>{843.0: 0.9833994947672321, 264.0: 0.016600505232767952}</t>
   </si>
   <si>
-    <t>{848.0: 0.9943369513921662, 707.0: 0.005663048607833884}</t>
+    <t>{848.0: 0.994336951392166, 707.0: 0.005663048607833884}</t>
   </si>
   <si>
     <t>{850.0: 0.9025032938076416, 277.0: 0.09749670619235837}</t>
@@ -1981,7 +1981,7 @@
     <t>{914.0: 1.0}</t>
   </si>
   <si>
-    <t>{915.0: 0.949481431917029, 171.0: 0.011375041820006692, 420.0: 0.039143526262964204}</t>
+    <t>{915.0: 0.9494814319170293, 171.0: 0.011375041820006692, 420.0: 0.0391435262629642}</t>
   </si>
   <si>
     <t>{922.0: 1.0}</t>
@@ -2002,7 +2002,7 @@
     <t>{934.0: 0.9748517200474496, 5.0: 0.025148279952550416}</t>
   </si>
   <si>
-    <t>{937.0: 0.9930522596635553, 171.0: 0.0033101741988785177, 593.0: 0.0036375661375661374}</t>
+    <t>{937.0: 0.9930546558837802, 171.0: 0.0033101821862792672, 593.0: 0.0036351619299405153}</t>
   </si>
   <si>
     <t>{971.0: 0.9941116231438812, 975.0: 0.005888376856118792}</t>
@@ -4057,7 +4057,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -4068,7 +4068,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4079,29 +4079,29 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>603</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>158</v>
+        <v>603</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -4112,7 +4112,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4123,7 +4123,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -4145,7 +4145,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -4156,29 +4156,29 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>604</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>165</v>
+        <v>604</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4189,7 +4189,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4211,7 +4211,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4222,7 +4222,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4244,7 +4244,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4266,7 +4266,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4277,40 +4277,40 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>605</v>
+        <v>175</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>177</v>
+        <v>606</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4321,7 +4321,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4332,7 +4332,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4365,7 +4365,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4376,7 +4376,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4387,7 +4387,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4398,40 +4398,40 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>607</v>
+        <v>186</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>188</v>
+        <v>608</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4442,7 +4442,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4464,7 +4464,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4475,7 +4475,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4497,29 +4497,29 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>609</v>
+        <v>195</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>196</v>
+        <v>609</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4530,7 +4530,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4541,7 +4541,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4552,7 +4552,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4563,7 +4563,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4574,7 +4574,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4585,7 +4585,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4596,7 +4596,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4618,7 +4618,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4629,7 +4629,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4640,7 +4640,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4651,7 +4651,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4673,7 +4673,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4684,7 +4684,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4706,7 +4706,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4717,29 +4717,29 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>610</v>
+        <v>215</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>216</v>
+        <v>610</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -4750,7 +4750,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -4761,7 +4761,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
@@ -4772,7 +4772,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -4794,7 +4794,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -4805,29 +4805,29 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>611</v>
+        <v>223</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>224</v>
+        <v>611</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
@@ -4849,7 +4849,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
@@ -4860,7 +4860,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
